--- a/experiments/ana-flavia-NCxHSD-NC-trim/sheets/relative-filtered_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxHSD-NC-trim/sheets/relative-filtered_frequencies.xlsx
@@ -31,40 +31,40 @@
     <t>NC</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121688</t>
-  </si>
-  <si>
-    <t>210421121689</t>
-  </si>
-  <si>
-    <t>210421121690</t>
-  </si>
-  <si>
-    <t>210421121698</t>
-  </si>
-  <si>
-    <t>210421121699</t>
-  </si>
-  <si>
-    <t>210421121700</t>
-  </si>
-  <si>
-    <t>210421121701</t>
-  </si>
-  <si>
-    <t>210421121702</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121688</t>
+  </si>
+  <si>
+    <t>S210421121689</t>
+  </si>
+  <si>
+    <t>S210421121690</t>
+  </si>
+  <si>
+    <t>S210421121698</t>
+  </si>
+  <si>
+    <t>S210421121699</t>
+  </si>
+  <si>
+    <t>S210421121700</t>
+  </si>
+  <si>
+    <t>S210421121701</t>
+  </si>
+  <si>
+    <t>S210421121702</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -499,18 +499,18 @@
     <t>[Eubacterium]_siraeum_group</t>
   </si>
   <si>
+    <t>Christensenellaceae_R-7_group</t>
+  </si>
+  <si>
+    <t>Incertae_Sedis</t>
+  </si>
+  <si>
+    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Christensenellaceae_R-7_group</t>
-  </si>
-  <si>
-    <t>Incertae_Sedis</t>
-  </si>
-  <si>
-    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
-  </si>
-  <si>
     <t>Colidextribacter</t>
   </si>
   <si>
@@ -613,12 +613,12 @@
     <t>[Eubacterium]_nodatum_group</t>
   </si>
   <si>
+    <t>[Eubacterium]_hallii_group</t>
+  </si>
+  <si>
     <t>Mucispirillum</t>
   </si>
   <si>
-    <t>[Eubacterium]_hallii_group</t>
-  </si>
-  <si>
     <t>Allorhizobium-Neorhizobium-Pararhizobium-Rhizobium</t>
   </si>
   <si>
@@ -664,12 +664,12 @@
     <t>Desulfovibrio</t>
   </si>
   <si>
+    <t>Oscillospira</t>
+  </si>
+  <si>
     <t>Rodentibacter</t>
   </si>
   <si>
-    <t>Oscillospira</t>
-  </si>
-  <si>
     <t>Anaerofustis</t>
   </si>
   <si>
@@ -688,13 +688,13 @@
     <t>Staphylococcus</t>
   </si>
   <si>
+    <t>Dorea</t>
+  </si>
+  <si>
+    <t>Massilia</t>
+  </si>
+  <si>
     <t>Candidatus_Stoquefichus</t>
-  </si>
-  <si>
-    <t>Dorea</t>
-  </si>
-  <si>
-    <t>Massilia</t>
   </si>
   <si>
     <t>Proteus</t>
@@ -1367,28 +1367,28 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.62323</v>
+        <v>0.63324</v>
       </c>
       <c r="C2">
         <v>0.13022</v>
       </c>
       <c r="D2">
-        <v>0.77873</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74813</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -1400,7 +1400,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -1417,31 +1417,31 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.31383</v>
+        <v>0.30548</v>
       </c>
       <c r="C3">
-        <v>0.79654</v>
+        <v>0.7965100000000001</v>
       </c>
       <c r="D3">
-        <v>0.16157</v>
+        <v>0.15596</v>
       </c>
       <c r="E3">
-        <v>0.31238</v>
+        <v>0.30957</v>
       </c>
       <c r="F3">
-        <v>0.20191</v>
+        <v>0.18123</v>
       </c>
       <c r="G3">
-        <v>0.05086</v>
+        <v>0.05143</v>
       </c>
       <c r="H3">
-        <v>0.10194</v>
+        <v>0.10097</v>
       </c>
       <c r="I3">
-        <v>0.47922</v>
+        <v>0.47908</v>
       </c>
       <c r="J3">
-        <v>0.93016</v>
+        <v>0.93014</v>
       </c>
       <c r="K3">
         <v>0.90112</v>
@@ -1450,13 +1450,13 @@
         <v>0.94143</v>
       </c>
       <c r="M3">
-        <v>0.61145</v>
+        <v>0.6112300000000001</v>
       </c>
       <c r="N3">
         <v>0.85382</v>
       </c>
       <c r="O3">
-        <v>0.90903</v>
+        <v>0.90894</v>
       </c>
       <c r="P3">
         <v>0.37724</v>
@@ -1467,28 +1467,28 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C4">
         <v>0.02892</v>
       </c>
       <c r="D4">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E4">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J4">
         <v>0.00349</v>
@@ -1517,31 +1517,31 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.02068</v>
+        <v>0.02014</v>
       </c>
       <c r="C5">
-        <v>0.01772</v>
+        <v>0.01775</v>
       </c>
       <c r="D5">
-        <v>0.02161</v>
+        <v>0.02087</v>
       </c>
       <c r="E5">
-        <v>0.00345</v>
+        <v>0.00341</v>
       </c>
       <c r="F5">
-        <v>0.04412</v>
+        <v>0.03984</v>
       </c>
       <c r="G5">
-        <v>0.01214</v>
+        <v>0.0121</v>
       </c>
       <c r="H5">
-        <v>0.01893</v>
+        <v>0.01875</v>
       </c>
       <c r="I5">
         <v>0.00669</v>
       </c>
       <c r="J5">
-        <v>0.0118</v>
+        <v>0.01182</v>
       </c>
       <c r="K5">
         <v>0.01406</v>
@@ -1550,13 +1550,13 @@
         <v>0.02285</v>
       </c>
       <c r="M5">
-        <v>0.12981</v>
+        <v>0.13014</v>
       </c>
       <c r="N5">
         <v>0.03602</v>
       </c>
       <c r="O5">
-        <v>0.02531</v>
+        <v>0.02541</v>
       </c>
       <c r="P5">
         <v>0.03146</v>
@@ -1567,19 +1567,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.00479</v>
+        <v>0.00466</v>
       </c>
       <c r="C6">
         <v>0.01834</v>
       </c>
       <c r="D6">
-        <v>0.00051</v>
+        <v>0.00049</v>
       </c>
       <c r="E6">
         <v>0.00013</v>
       </c>
       <c r="F6">
-        <v>0.00112</v>
+        <v>0.00101</v>
       </c>
       <c r="G6">
         <v>9.000000000000001E-05</v>
@@ -1588,7 +1588,7 @@
         <v>0.00046</v>
       </c>
       <c r="I6">
-        <v>0.02731</v>
+        <v>0.02732</v>
       </c>
       <c r="J6">
         <v>0.01417</v>
@@ -1600,7 +1600,7 @@
         <v>0.02762</v>
       </c>
       <c r="M6">
-        <v>0.02547</v>
+        <v>0.02546</v>
       </c>
       <c r="N6">
         <v>0.02355</v>
@@ -1617,13 +1617,13 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C7">
         <v>0.00796</v>
       </c>
       <c r="D7">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1635,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I7">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J7">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K7">
         <v>0.01536</v>
@@ -1667,25 +1667,25 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C8">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D8">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E8">
         <v>0.00024</v>
       </c>
       <c r="F8">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I8">
         <v>0.00029</v>
@@ -1717,19 +1717,19 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E9">
         <v>0.00025</v>
       </c>
       <c r="F9">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1977,28 +1977,28 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>0.62323</v>
+        <v>0.63324</v>
       </c>
       <c r="C2">
         <v>0.13022</v>
       </c>
       <c r="D2">
-        <v>0.77873</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74813</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -2010,7 +2010,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -2027,31 +2027,31 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>0.26501</v>
+        <v>0.25797</v>
       </c>
       <c r="C3">
-        <v>0.69934</v>
+        <v>0.69936</v>
       </c>
       <c r="D3">
-        <v>0.12802</v>
+        <v>0.12356</v>
       </c>
       <c r="E3">
-        <v>0.29967</v>
+        <v>0.297</v>
       </c>
       <c r="F3">
-        <v>0.1369</v>
+        <v>0.12253</v>
       </c>
       <c r="G3">
-        <v>0.03785</v>
+        <v>0.03845</v>
       </c>
       <c r="H3">
-        <v>0.07099</v>
+        <v>0.07031</v>
       </c>
       <c r="I3">
-        <v>0.42925</v>
+        <v>0.42936</v>
       </c>
       <c r="J3">
-        <v>0.8190499999999999</v>
+        <v>0.81903</v>
       </c>
       <c r="K3">
         <v>0.77654</v>
@@ -2060,13 +2060,13 @@
         <v>0.7654</v>
       </c>
       <c r="M3">
-        <v>0.4949</v>
+        <v>0.49471</v>
       </c>
       <c r="N3">
         <v>0.79765</v>
       </c>
       <c r="O3">
-        <v>0.8114</v>
+        <v>0.81131</v>
       </c>
       <c r="P3">
         <v>0.36726</v>
@@ -2077,31 +2077,31 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.04882</v>
+        <v>0.04751</v>
       </c>
       <c r="C4">
-        <v>0.09721</v>
+        <v>0.09715</v>
       </c>
       <c r="D4">
-        <v>0.03356</v>
+        <v>0.0324</v>
       </c>
       <c r="E4">
-        <v>0.01271</v>
+        <v>0.01256</v>
       </c>
       <c r="F4">
-        <v>0.06501</v>
+        <v>0.0587</v>
       </c>
       <c r="G4">
-        <v>0.01301</v>
+        <v>0.01297</v>
       </c>
       <c r="H4">
-        <v>0.03095</v>
+        <v>0.03065</v>
       </c>
       <c r="I4">
-        <v>0.04998</v>
+        <v>0.04971</v>
       </c>
       <c r="J4">
-        <v>0.11111</v>
+        <v>0.1111</v>
       </c>
       <c r="K4">
         <v>0.12458</v>
@@ -2110,13 +2110,13 @@
         <v>0.17603</v>
       </c>
       <c r="M4">
-        <v>0.11656</v>
+        <v>0.11651</v>
       </c>
       <c r="N4">
         <v>0.05617</v>
       </c>
       <c r="O4">
-        <v>0.09764</v>
+        <v>0.09762999999999999</v>
       </c>
       <c r="P4">
         <v>0.00997</v>
@@ -2127,28 +2127,28 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C5">
         <v>0.02892</v>
       </c>
       <c r="D5">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E5">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F5">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G5">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H5">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I5">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J5">
         <v>0.00349</v>
@@ -2177,31 +2177,31 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>0.01712</v>
+        <v>0.01668</v>
       </c>
       <c r="C6">
-        <v>0.01703</v>
+        <v>0.01707</v>
       </c>
       <c r="D6">
-        <v>0.01715</v>
+        <v>0.01656</v>
       </c>
       <c r="E6">
-        <v>0.00345</v>
+        <v>0.00341</v>
       </c>
       <c r="F6">
-        <v>0.0433</v>
+        <v>0.03909</v>
       </c>
       <c r="G6">
-        <v>0.01214</v>
+        <v>0.0121</v>
       </c>
       <c r="H6">
-        <v>0.0069</v>
+        <v>0.00684</v>
       </c>
       <c r="I6">
         <v>0.00663</v>
       </c>
       <c r="J6">
-        <v>0.01149</v>
+        <v>0.01151</v>
       </c>
       <c r="K6">
         <v>0.01375</v>
@@ -2210,13 +2210,13 @@
         <v>0.02191</v>
       </c>
       <c r="M6">
-        <v>0.12274</v>
+        <v>0.12306</v>
       </c>
       <c r="N6">
         <v>0.03537</v>
       </c>
       <c r="O6">
-        <v>0.02339</v>
+        <v>0.02349</v>
       </c>
       <c r="P6">
         <v>0.03146</v>
@@ -2227,25 +2227,25 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.00356</v>
+        <v>0.00347</v>
       </c>
       <c r="C7">
         <v>0.00069</v>
       </c>
       <c r="D7">
-        <v>0.00447</v>
+        <v>0.00431</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.00083</v>
+        <v>0.00075</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I7">
         <v>6E-05</v>
@@ -2260,7 +2260,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M7">
-        <v>0.00708</v>
+        <v>0.00707</v>
       </c>
       <c r="N7">
         <v>0.00065</v>
@@ -2277,19 +2277,19 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.00263</v>
+        <v>0.00256</v>
       </c>
       <c r="C8">
         <v>0.01018</v>
       </c>
       <c r="D8">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G8">
         <v>1E-05</v>
@@ -2310,7 +2310,7 @@
         <v>0.0136</v>
       </c>
       <c r="M8">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N8">
         <v>0.00461</v>
@@ -2327,13 +2327,13 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C9">
         <v>0.00796</v>
       </c>
       <c r="D9">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I9">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J9">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K9">
         <v>0.01536</v>
@@ -2377,19 +2377,19 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>0.00216</v>
+        <v>0.0021</v>
       </c>
       <c r="C10">
         <v>0.008160000000000001</v>
       </c>
       <c r="D10">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E10">
         <v>0.00013</v>
       </c>
       <c r="F10">
-        <v>0.00032</v>
+        <v>0.00029</v>
       </c>
       <c r="G10">
         <v>9.000000000000001E-05</v>
@@ -2398,7 +2398,7 @@
         <v>0.00037</v>
       </c>
       <c r="I10">
-        <v>0.008189999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="J10">
         <v>0.00334</v>
@@ -2416,7 +2416,7 @@
         <v>0.01894</v>
       </c>
       <c r="O10">
-        <v>0.01852</v>
+        <v>0.01851</v>
       </c>
       <c r="P10">
         <v>0.00332</v>
@@ -2427,25 +2427,25 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C11">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D11">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E11">
         <v>0.00024</v>
       </c>
       <c r="F11">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I11">
         <v>0.00029</v>
@@ -2477,19 +2477,19 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E12">
         <v>0.00025</v>
       </c>
       <c r="F12">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2737,28 +2737,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.62321</v>
+        <v>0.63322</v>
       </c>
       <c r="C2">
         <v>0.13007</v>
       </c>
       <c r="D2">
-        <v>0.77876</v>
+        <v>0.78644</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74824</v>
+        <v>0.77377</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -2770,7 +2770,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -2787,10 +2787,10 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.07098</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="C3">
-        <v>0.29598</v>
+        <v>0.29599</v>
       </c>
       <c r="D3">
         <v>1E-05</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06038</v>
+        <v>0.06039</v>
       </c>
       <c r="J3">
-        <v>0.43368</v>
+        <v>0.43367</v>
       </c>
       <c r="K3">
         <v>0.23543</v>
@@ -2820,13 +2820,13 @@
         <v>0.40233</v>
       </c>
       <c r="M3">
-        <v>0.01877</v>
+        <v>0.01876</v>
       </c>
       <c r="N3">
         <v>0.017</v>
       </c>
       <c r="O3">
-        <v>0.65996</v>
+        <v>0.6599</v>
       </c>
       <c r="P3">
         <v>0.01509</v>
@@ -2837,25 +2837,25 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.05571</v>
+        <v>0.05423</v>
       </c>
       <c r="C4">
         <v>0.11294</v>
       </c>
       <c r="D4">
-        <v>0.03765</v>
+        <v>0.03635</v>
       </c>
       <c r="E4">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="F4">
-        <v>0.11619</v>
+        <v>0.1049</v>
       </c>
       <c r="G4">
         <v>0.00173</v>
       </c>
       <c r="H4">
-        <v>0.01369</v>
+        <v>0.01356</v>
       </c>
       <c r="I4">
         <v>0.01686</v>
@@ -2870,7 +2870,7 @@
         <v>0.16814</v>
       </c>
       <c r="M4">
-        <v>0.01698</v>
+        <v>0.01697</v>
       </c>
       <c r="N4">
         <v>0.01902</v>
@@ -2887,28 +2887,28 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.05141</v>
+        <v>0.05002</v>
       </c>
       <c r="C5">
         <v>0.04918</v>
       </c>
       <c r="D5">
-        <v>0.05211</v>
+        <v>0.05027</v>
       </c>
       <c r="E5">
-        <v>0.19087</v>
+        <v>0.18947</v>
       </c>
       <c r="F5">
-        <v>0.01628</v>
+        <v>0.01363</v>
       </c>
       <c r="G5">
-        <v>0.02144</v>
+        <v>0.02209</v>
       </c>
       <c r="H5">
-        <v>0.01831</v>
+        <v>0.01814</v>
       </c>
       <c r="I5">
-        <v>0.02345</v>
+        <v>0.02346</v>
       </c>
       <c r="J5">
         <v>0.05213</v>
@@ -2920,7 +2920,7 @@
         <v>0.05213</v>
       </c>
       <c r="M5">
-        <v>0.10039</v>
+        <v>0.10036</v>
       </c>
       <c r="N5">
         <v>0.13557</v>
@@ -2937,28 +2937,28 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.04891</v>
+        <v>0.04762</v>
       </c>
       <c r="C6">
         <v>0.10731</v>
       </c>
       <c r="D6">
-        <v>0.03049</v>
+        <v>0.02944</v>
       </c>
       <c r="E6">
-        <v>0.09478</v>
+        <v>0.09368</v>
       </c>
       <c r="F6">
-        <v>0.00373</v>
+        <v>0.00336</v>
       </c>
       <c r="G6">
-        <v>0.01119</v>
+        <v>0.01116</v>
       </c>
       <c r="H6">
-        <v>0.02531</v>
+        <v>0.02507</v>
       </c>
       <c r="I6">
-        <v>0.07704</v>
+        <v>0.07706</v>
       </c>
       <c r="J6">
         <v>0.11986</v>
@@ -2970,13 +2970,13 @@
         <v>0.02897</v>
       </c>
       <c r="M6">
-        <v>0.04848</v>
+        <v>0.04847</v>
       </c>
       <c r="N6">
         <v>0.27519</v>
       </c>
       <c r="O6">
-        <v>0.04258</v>
+        <v>0.04257</v>
       </c>
       <c r="P6">
         <v>0.16752</v>
@@ -2987,28 +2987,28 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C7">
         <v>0.02892</v>
       </c>
       <c r="D7">
-        <v>0.03512</v>
+        <v>0.03391</v>
       </c>
       <c r="E7">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F7">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G7">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H7">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I7">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J7">
         <v>0.00349</v>
@@ -3037,16 +3037,16 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.03246</v>
+        <v>0.0316</v>
       </c>
       <c r="C8">
         <v>0.12094</v>
       </c>
       <c r="D8">
-        <v>0.00455</v>
+        <v>0.00439</v>
       </c>
       <c r="E8">
-        <v>0.00574</v>
+        <v>0.00568</v>
       </c>
       <c r="F8">
         <v>4E-05</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009690000000000001</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I8">
-        <v>0.23771</v>
+        <v>0.23777</v>
       </c>
       <c r="J8">
         <v>0.05709</v>
@@ -3070,7 +3070,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M8">
-        <v>0.28026</v>
+        <v>0.28015</v>
       </c>
       <c r="N8">
         <v>0.26807</v>
@@ -3087,28 +3087,28 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.0244</v>
+        <v>0.02376</v>
       </c>
       <c r="C9">
         <v>0.01939</v>
       </c>
       <c r="D9">
-        <v>0.02599</v>
+        <v>0.02509</v>
       </c>
       <c r="E9">
-        <v>0.01022</v>
+        <v>0.0101</v>
       </c>
       <c r="F9">
-        <v>0.05164</v>
+        <v>0.04662</v>
       </c>
       <c r="G9">
-        <v>0.00826</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="H9">
-        <v>0.02366</v>
+        <v>0.02344</v>
       </c>
       <c r="I9">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="J9">
         <v>0.01894</v>
@@ -3137,28 +3137,28 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.02045</v>
+        <v>0.01991</v>
       </c>
       <c r="C10">
         <v>0.07338</v>
       </c>
       <c r="D10">
-        <v>0.00376</v>
+        <v>0.00363</v>
       </c>
       <c r="E10">
         <v>0.00066</v>
       </c>
       <c r="F10">
-        <v>0.00713</v>
+        <v>0.00644</v>
       </c>
       <c r="G10">
         <v>0.00063</v>
       </c>
       <c r="H10">
-        <v>0.00442</v>
+        <v>0.00438</v>
       </c>
       <c r="I10">
-        <v>0.04558</v>
+        <v>0.04559</v>
       </c>
       <c r="J10">
         <v>0.08906</v>
@@ -3170,13 +3170,13 @@
         <v>0.13241</v>
       </c>
       <c r="M10">
-        <v>0.07291</v>
+        <v>0.07289</v>
       </c>
       <c r="N10">
         <v>0.03901</v>
       </c>
       <c r="O10">
-        <v>0.08926000000000001</v>
+        <v>0.08925</v>
       </c>
       <c r="P10">
         <v>0.00716</v>
@@ -3187,31 +3187,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.01307</v>
+        <v>0.01274</v>
       </c>
       <c r="C11">
-        <v>0.00746</v>
+        <v>0.00749</v>
       </c>
       <c r="D11">
-        <v>0.01484</v>
+        <v>0.01433</v>
       </c>
       <c r="E11">
-        <v>0.00073</v>
+        <v>0.00072</v>
       </c>
       <c r="F11">
-        <v>0.0418</v>
+        <v>0.03774</v>
       </c>
       <c r="G11">
-        <v>0.00511</v>
+        <v>0.0051</v>
       </c>
       <c r="H11">
-        <v>0.00657</v>
+        <v>0.00652</v>
       </c>
       <c r="I11">
         <v>0.0027</v>
       </c>
       <c r="J11">
-        <v>0.00518</v>
+        <v>0.0052</v>
       </c>
       <c r="K11">
         <v>0.00272</v>
@@ -3220,13 +3220,13 @@
         <v>0.00634</v>
       </c>
       <c r="M11">
-        <v>0.08498</v>
+        <v>0.08531999999999999</v>
       </c>
       <c r="N11">
         <v>0.00518</v>
       </c>
       <c r="O11">
-        <v>0.01134</v>
+        <v>0.01144</v>
       </c>
       <c r="P11">
         <v>0.01304</v>
@@ -3237,25 +3237,25 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.00338</v>
+        <v>0.00329</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00445</v>
+        <v>0.0043</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00077</v>
+        <v>0.00069</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3287,22 +3287,22 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>0.00329</v>
+        <v>0.00321</v>
       </c>
       <c r="C13">
         <v>0.00685</v>
       </c>
       <c r="D13">
-        <v>0.00217</v>
+        <v>0.0021</v>
       </c>
       <c r="E13">
-        <v>0.00251</v>
+        <v>0.00248</v>
       </c>
       <c r="F13">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G13">
-        <v>0.007</v>
+        <v>0.00698</v>
       </c>
       <c r="H13">
         <v>0.00027</v>
@@ -3337,25 +3337,25 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>0.00282</v>
+        <v>0.00275</v>
       </c>
       <c r="C14">
         <v>0.001</v>
       </c>
       <c r="D14">
-        <v>0.0034</v>
+        <v>0.00328</v>
       </c>
       <c r="E14">
-        <v>0.00183</v>
+        <v>0.00181</v>
       </c>
       <c r="F14">
-        <v>0.00477</v>
+        <v>0.00431</v>
       </c>
       <c r="G14">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="H14">
-        <v>0.00283</v>
+        <v>0.0028</v>
       </c>
       <c r="I14">
         <v>0.00086</v>
@@ -3387,19 +3387,19 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>0.00257</v>
+        <v>0.0025</v>
       </c>
       <c r="C15">
         <v>0.00993</v>
       </c>
       <c r="D15">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0.00769</v>
       </c>
       <c r="M15">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N15">
         <v>0.00461</v>
@@ -3437,28 +3437,28 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.00256</v>
+        <v>0.00249</v>
       </c>
       <c r="C16">
         <v>0.00814</v>
       </c>
       <c r="D16">
-        <v>0.0008</v>
+        <v>0.00077</v>
       </c>
       <c r="E16">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00296</v>
+        <v>0.00295</v>
       </c>
       <c r="H16">
         <v>0.00028</v>
       </c>
       <c r="I16">
-        <v>0.0078</v>
+        <v>0.00781</v>
       </c>
       <c r="J16">
         <v>0.00402</v>
@@ -3487,13 +3487,13 @@
         <v>56</v>
       </c>
       <c r="B17">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C17">
         <v>0.00796</v>
       </c>
       <c r="D17">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I17">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J17">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K17">
         <v>0.01536</v>
@@ -3537,19 +3537,19 @@
         <v>57</v>
       </c>
       <c r="B18">
-        <v>0.00216</v>
+        <v>0.0021</v>
       </c>
       <c r="C18">
         <v>0.008160000000000001</v>
       </c>
       <c r="D18">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E18">
         <v>0.00013</v>
       </c>
       <c r="F18">
-        <v>0.00032</v>
+        <v>0.00029</v>
       </c>
       <c r="G18">
         <v>9.000000000000001E-05</v>
@@ -3558,7 +3558,7 @@
         <v>0.00037</v>
       </c>
       <c r="I18">
-        <v>0.008189999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="J18">
         <v>0.00334</v>
@@ -3576,7 +3576,7 @@
         <v>0.01894</v>
       </c>
       <c r="O18">
-        <v>0.01852</v>
+        <v>0.01851</v>
       </c>
       <c r="P18">
         <v>0.00332</v>
@@ -3587,25 +3587,25 @@
         <v>58</v>
       </c>
       <c r="B19">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C19">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D19">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E19">
         <v>0.00024</v>
       </c>
       <c r="F19">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I19">
         <v>0.00029</v>
@@ -3637,25 +3637,25 @@
         <v>59</v>
       </c>
       <c r="B20">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="C20">
         <v>0.00013</v>
       </c>
       <c r="D20">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="E20">
-        <v>0.00238</v>
+        <v>0.00235</v>
       </c>
       <c r="F20">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G20">
         <v>4E-05</v>
       </c>
       <c r="H20">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="I20">
         <v>0.00031</v>
@@ -3687,19 +3687,19 @@
         <v>60</v>
       </c>
       <c r="B21">
-        <v>0.00116</v>
+        <v>0.00113</v>
       </c>
       <c r="C21">
         <v>0.00423</v>
       </c>
       <c r="D21">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="E21">
         <v>3E-05</v>
       </c>
       <c r="F21">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G21">
         <v>0.00028</v>
@@ -3720,7 +3720,7 @@
         <v>0.04154</v>
       </c>
       <c r="M21">
-        <v>0.03001</v>
+        <v>0.03</v>
       </c>
       <c r="N21">
         <v>0.00372</v>
@@ -3737,10 +3737,10 @@
         <v>61</v>
       </c>
       <c r="B22">
-        <v>0.00082</v>
+        <v>0.00078</v>
       </c>
       <c r="C22">
-        <v>0.00337</v>
+        <v>0.00331</v>
       </c>
       <c r="D22">
         <v>1E-05</v>
@@ -3758,7 +3758,7 @@
         <v>3E-05</v>
       </c>
       <c r="I22">
-        <v>0.00359</v>
+        <v>0.00331</v>
       </c>
       <c r="J22">
         <v>0.00156</v>
@@ -3770,7 +3770,7 @@
         <v>0.00426</v>
       </c>
       <c r="M22">
-        <v>0.02696</v>
+        <v>0.02695</v>
       </c>
       <c r="N22">
         <v>0.01222</v>
@@ -3787,7 +3787,7 @@
         <v>62</v>
       </c>
       <c r="B23">
-        <v>0.0007</v>
+        <v>0.00068</v>
       </c>
       <c r="C23">
         <v>0.00267</v>
@@ -3799,7 +3799,7 @@
         <v>0.0001</v>
       </c>
       <c r="F23">
-        <v>0.00021</v>
+        <v>0.00019</v>
       </c>
       <c r="G23">
         <v>2E-05</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.02808</v>
+        <v>0.02807</v>
       </c>
       <c r="N23">
         <v>0.0009700000000000001</v>
@@ -3837,19 +3837,19 @@
         <v>63</v>
       </c>
       <c r="B24">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="C24">
         <v>0.00017</v>
       </c>
       <c r="D24">
-        <v>0.00066</v>
+        <v>0.00063</v>
       </c>
       <c r="E24">
-        <v>0.00182</v>
+        <v>0.0018</v>
       </c>
       <c r="F24">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G24">
         <v>0.00022</v>
@@ -3887,19 +3887,19 @@
         <v>64</v>
       </c>
       <c r="B25">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C25">
         <v>2E-05</v>
       </c>
       <c r="D25">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M26">
-        <v>0.00611</v>
+        <v>0.0061</v>
       </c>
       <c r="N26">
         <v>0.00065</v>
@@ -3987,19 +3987,19 @@
         <v>66</v>
       </c>
       <c r="B27">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E27">
         <v>0.00025</v>
       </c>
       <c r="F27">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>67</v>
       </c>
       <c r="B28">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C28">
         <v>6E-05</v>
@@ -4046,7 +4046,7 @@
         <v>5E-05</v>
       </c>
       <c r="E28">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="F28">
         <v>5E-05</v>
@@ -4237,7 +4237,7 @@
         <v>71</v>
       </c>
       <c r="B32">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C32">
         <v>0.00015</v>
@@ -4387,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="B35">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C35">
         <v>0.00011</v>
@@ -4647,28 +4647,28 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>0.37473</v>
+        <v>0.36498</v>
       </c>
       <c r="C2">
         <v>0.12396</v>
       </c>
       <c r="D2">
-        <v>0.45408</v>
+        <v>0.4386</v>
       </c>
       <c r="E2">
-        <v>0.41906</v>
+        <v>0.4142</v>
       </c>
       <c r="F2">
-        <v>0.31351</v>
+        <v>0.28304</v>
       </c>
       <c r="G2">
-        <v>0.4792</v>
+        <v>0.47787</v>
       </c>
       <c r="H2">
-        <v>0.57179</v>
+        <v>0.56698</v>
       </c>
       <c r="I2">
-        <v>0.37564</v>
+        <v>0.37574</v>
       </c>
       <c r="J2">
         <v>0.03242</v>
@@ -4680,7 +4680,7 @@
         <v>0.00198</v>
       </c>
       <c r="M2">
-        <v>0.16768</v>
+        <v>0.16762</v>
       </c>
       <c r="N2">
         <v>0.03068</v>
@@ -4697,25 +4697,25 @@
         <v>79</v>
       </c>
       <c r="B3">
-        <v>0.11009</v>
+        <v>0.13356</v>
       </c>
       <c r="C3">
         <v>0.00184</v>
       </c>
       <c r="D3">
-        <v>0.14435</v>
+        <v>0.1738</v>
       </c>
       <c r="E3">
-        <v>0.10444</v>
+        <v>0.11401</v>
       </c>
       <c r="F3">
-        <v>0.32161</v>
+        <v>0.38863</v>
       </c>
       <c r="G3">
-        <v>0.06494999999999999</v>
+        <v>0.06687</v>
       </c>
       <c r="H3">
-        <v>0.06747</v>
+        <v>0.07578</v>
       </c>
       <c r="I3">
         <v>0.00262</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03244</v>
+        <v>0.03243</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -4747,25 +4747,25 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>0.10051</v>
+        <v>0.09784</v>
       </c>
       <c r="C4">
         <v>0.00324</v>
       </c>
       <c r="D4">
-        <v>0.13129</v>
+        <v>0.12674</v>
       </c>
       <c r="E4">
-        <v>0.09668</v>
+        <v>0.09556000000000001</v>
       </c>
       <c r="F4">
-        <v>0.00517</v>
+        <v>0.00466</v>
       </c>
       <c r="G4">
-        <v>0.21728</v>
+        <v>0.21666</v>
       </c>
       <c r="H4">
-        <v>0.20642</v>
+        <v>0.20442</v>
       </c>
       <c r="I4">
         <v>0.009220000000000001</v>
@@ -4797,10 +4797,10 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>0.07124</v>
+        <v>0.06934999999999999</v>
       </c>
       <c r="C5">
-        <v>0.29634</v>
+        <v>0.29635</v>
       </c>
       <c r="D5">
         <v>1E-05</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4818,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06038</v>
+        <v>0.06039</v>
       </c>
       <c r="J5">
-        <v>0.43368</v>
+        <v>0.43367</v>
       </c>
       <c r="K5">
         <v>0.23561</v>
@@ -4830,13 +4830,13 @@
         <v>0.40447</v>
       </c>
       <c r="M5">
-        <v>0.01888</v>
+        <v>0.01887</v>
       </c>
       <c r="N5">
         <v>0.01713</v>
       </c>
       <c r="O5">
-        <v>0.66255</v>
+        <v>0.66248</v>
       </c>
       <c r="P5">
         <v>0.01514</v>
@@ -4847,31 +4847,31 @@
         <v>82</v>
       </c>
       <c r="B6">
-        <v>0.0554</v>
+        <v>0.05393</v>
       </c>
       <c r="C6">
-        <v>0.11229</v>
+        <v>0.1123</v>
       </c>
       <c r="D6">
-        <v>0.03739</v>
+        <v>0.0361</v>
       </c>
       <c r="E6">
-        <v>0.00252</v>
+        <v>0.00249</v>
       </c>
       <c r="F6">
-        <v>0.11628</v>
+        <v>0.10497</v>
       </c>
       <c r="G6">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H6">
-        <v>0.01322</v>
+        <v>0.01309</v>
       </c>
       <c r="I6">
-        <v>0.01489</v>
+        <v>0.0149</v>
       </c>
       <c r="J6">
-        <v>0.15103</v>
+        <v>0.15102</v>
       </c>
       <c r="K6">
         <v>0.21205</v>
@@ -4886,7 +4886,7 @@
         <v>0.01787</v>
       </c>
       <c r="O6">
-        <v>0.05626</v>
+        <v>0.05625</v>
       </c>
       <c r="P6">
         <v>0.00821</v>
@@ -4897,28 +4897,28 @@
         <v>83</v>
       </c>
       <c r="B7">
-        <v>0.05155</v>
+        <v>0.05015</v>
       </c>
       <c r="C7">
         <v>0.04924</v>
       </c>
       <c r="D7">
-        <v>0.05228</v>
+        <v>0.05043</v>
       </c>
       <c r="E7">
-        <v>0.19088</v>
+        <v>0.18947</v>
       </c>
       <c r="F7">
-        <v>0.01624</v>
+        <v>0.01359</v>
       </c>
       <c r="G7">
-        <v>0.02144</v>
+        <v>0.02209</v>
       </c>
       <c r="H7">
-        <v>0.0184</v>
+        <v>0.01822</v>
       </c>
       <c r="I7">
-        <v>0.02345</v>
+        <v>0.02346</v>
       </c>
       <c r="J7">
         <v>0.05213</v>
@@ -4930,7 +4930,7 @@
         <v>0.05241</v>
       </c>
       <c r="M7">
-        <v>0.101</v>
+        <v>0.10096</v>
       </c>
       <c r="N7">
         <v>0.13666</v>
@@ -4947,28 +4947,28 @@
         <v>84</v>
       </c>
       <c r="B8">
-        <v>0.03376</v>
+        <v>0.03286</v>
       </c>
       <c r="C8">
         <v>0.02895</v>
       </c>
       <c r="D8">
-        <v>0.03528</v>
+        <v>0.03405</v>
       </c>
       <c r="E8">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F8">
-        <v>0.00383</v>
+        <v>0.00345</v>
       </c>
       <c r="G8">
-        <v>0.15258</v>
+        <v>0.15214</v>
       </c>
       <c r="H8">
-        <v>0.00318</v>
+        <v>0.00315</v>
       </c>
       <c r="I8">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J8">
         <v>0.00349</v>
@@ -4997,16 +4997,16 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.03258</v>
+        <v>0.03171</v>
       </c>
       <c r="C9">
         <v>0.12109</v>
       </c>
       <c r="D9">
-        <v>0.00457</v>
+        <v>0.00441</v>
       </c>
       <c r="E9">
-        <v>0.00574</v>
+        <v>0.00568</v>
       </c>
       <c r="F9">
         <v>4E-05</v>
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.009809999999999999</v>
+        <v>0.00971</v>
       </c>
       <c r="I9">
-        <v>0.23771</v>
+        <v>0.23777</v>
       </c>
       <c r="J9">
         <v>0.05709</v>
@@ -5030,7 +5030,7 @@
         <v>0.07037</v>
       </c>
       <c r="M9">
-        <v>0.28194</v>
+        <v>0.28183</v>
       </c>
       <c r="N9">
         <v>0.27021</v>
@@ -5047,31 +5047,31 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>0.02443</v>
+        <v>0.02378</v>
       </c>
       <c r="C10">
         <v>0.07913000000000001</v>
       </c>
       <c r="D10">
-        <v>0.00712</v>
+        <v>0.00688</v>
       </c>
       <c r="E10">
-        <v>0.02123</v>
+        <v>0.02098</v>
       </c>
       <c r="F10">
-        <v>0.0005</v>
+        <v>0.00045</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.008030000000000001</v>
+        <v>0.00795</v>
       </c>
       <c r="I10">
-        <v>0.03752</v>
+        <v>0.03753</v>
       </c>
       <c r="J10">
-        <v>0.11631</v>
+        <v>0.1163</v>
       </c>
       <c r="K10">
         <v>0.13643</v>
@@ -5080,7 +5080,7 @@
         <v>0.01013</v>
       </c>
       <c r="M10">
-        <v>0.00465</v>
+        <v>0.00464</v>
       </c>
       <c r="N10">
         <v>0.01338</v>
@@ -5097,28 +5097,28 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>0.02381</v>
+        <v>0.02318</v>
       </c>
       <c r="C11">
         <v>0.01876</v>
       </c>
       <c r="D11">
-        <v>0.02541</v>
+        <v>0.02453</v>
       </c>
       <c r="E11">
-        <v>0.0098</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F11">
-        <v>0.0502</v>
+        <v>0.04532</v>
       </c>
       <c r="G11">
-        <v>0.00727</v>
+        <v>0.00725</v>
       </c>
       <c r="H11">
-        <v>0.02388</v>
+        <v>0.02364</v>
       </c>
       <c r="I11">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="J11">
         <v>0.01879</v>
@@ -5130,7 +5130,7 @@
         <v>0.02756</v>
       </c>
       <c r="M11">
-        <v>0.01139</v>
+        <v>0.01138</v>
       </c>
       <c r="N11">
         <v>0.00179</v>
@@ -5147,25 +5147,25 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>0.02351</v>
+        <v>0.02289</v>
       </c>
       <c r="C12">
         <v>0.00028</v>
       </c>
       <c r="D12">
-        <v>0.03087</v>
+        <v>0.0298</v>
       </c>
       <c r="E12">
-        <v>0.00668</v>
+        <v>0.00661</v>
       </c>
       <c r="F12">
-        <v>0.08187</v>
+        <v>0.07391</v>
       </c>
       <c r="G12">
-        <v>0.02293</v>
+        <v>0.02287</v>
       </c>
       <c r="H12">
-        <v>0.008319999999999999</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="I12">
         <v>0.0006400000000000001</v>
@@ -5197,28 +5197,28 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>0.01996</v>
+        <v>0.01943</v>
       </c>
       <c r="C13">
         <v>0.07335999999999999</v>
       </c>
       <c r="D13">
-        <v>0.00307</v>
+        <v>0.00296</v>
       </c>
       <c r="E13">
         <v>5E-05</v>
       </c>
       <c r="F13">
-        <v>0.00589</v>
+        <v>0.00532</v>
       </c>
       <c r="G13">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H13">
-        <v>0.00389</v>
+        <v>0.00385</v>
       </c>
       <c r="I13">
-        <v>0.04558</v>
+        <v>0.04559</v>
       </c>
       <c r="J13">
         <v>0.08906</v>
@@ -5230,7 +5230,7 @@
         <v>0.13155</v>
       </c>
       <c r="M13">
-        <v>0.0726</v>
+        <v>0.07257</v>
       </c>
       <c r="N13">
         <v>0.0381</v>
@@ -5247,25 +5247,25 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>0.01668</v>
+        <v>0.01624</v>
       </c>
       <c r="C14">
         <v>0.00091</v>
       </c>
       <c r="D14">
-        <v>0.02167</v>
+        <v>0.02092</v>
       </c>
       <c r="E14">
-        <v>0.02635</v>
+        <v>0.02604</v>
       </c>
       <c r="F14">
-        <v>0.02666</v>
+        <v>0.02406</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02613</v>
+        <v>0.02588</v>
       </c>
       <c r="I14">
         <v>0.00329</v>
@@ -5297,28 +5297,28 @@
         <v>90</v>
       </c>
       <c r="B15">
-        <v>0.01527</v>
+        <v>0.01487</v>
       </c>
       <c r="C15">
         <v>0.01333</v>
       </c>
       <c r="D15">
-        <v>0.01589</v>
+        <v>0.01534</v>
       </c>
       <c r="E15">
-        <v>0.05834</v>
+        <v>0.05766</v>
       </c>
       <c r="F15">
-        <v>0.00309</v>
+        <v>0.00279</v>
       </c>
       <c r="G15">
-        <v>0.00847</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="H15">
-        <v>0.00586</v>
+        <v>0.00581</v>
       </c>
       <c r="I15">
-        <v>0.0153</v>
+        <v>0.01531</v>
       </c>
       <c r="J15">
         <v>0.00209</v>
@@ -5330,7 +5330,7 @@
         <v>0.00783</v>
       </c>
       <c r="M15">
-        <v>0.01866</v>
+        <v>0.01865</v>
       </c>
       <c r="N15">
         <v>0.20584</v>
@@ -5347,25 +5347,25 @@
         <v>91</v>
       </c>
       <c r="B16">
-        <v>0.01126</v>
+        <v>0.01096</v>
       </c>
       <c r="C16">
         <v>0.00034</v>
       </c>
       <c r="D16">
-        <v>0.01471</v>
+        <v>0.0142</v>
       </c>
       <c r="E16">
         <v>0.00062</v>
       </c>
       <c r="F16">
-        <v>0.0414</v>
+        <v>0.03738</v>
       </c>
       <c r="G16">
-        <v>0.00498</v>
+        <v>0.00497</v>
       </c>
       <c r="H16">
-        <v>0.00656</v>
+        <v>0.0065</v>
       </c>
       <c r="I16">
         <v>0.00106</v>
@@ -5397,28 +5397,28 @@
         <v>92</v>
       </c>
       <c r="B17">
-        <v>0.00767</v>
+        <v>0.00746</v>
       </c>
       <c r="C17">
         <v>0.01362</v>
       </c>
       <c r="D17">
-        <v>0.00579</v>
+        <v>0.00559</v>
       </c>
       <c r="E17">
-        <v>0.01355</v>
+        <v>0.0134</v>
       </c>
       <c r="F17">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="G17">
-        <v>0.00272</v>
+        <v>0.00271</v>
       </c>
       <c r="H17">
-        <v>0.00743</v>
+        <v>0.00735</v>
       </c>
       <c r="I17">
-        <v>0.0219</v>
+        <v>0.02191</v>
       </c>
       <c r="J17">
         <v>0.0008</v>
@@ -5447,25 +5447,25 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>0.00328</v>
+        <v>0.00319</v>
       </c>
       <c r="C18">
         <v>0.00686</v>
       </c>
       <c r="D18">
-        <v>0.00214</v>
+        <v>0.00207</v>
       </c>
       <c r="E18">
-        <v>0.00251</v>
+        <v>0.00248</v>
       </c>
       <c r="F18">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G18">
-        <v>0.00679</v>
+        <v>0.00677</v>
       </c>
       <c r="H18">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="I18">
         <v>0.00354</v>
@@ -5480,7 +5480,7 @@
         <v>0.01566</v>
       </c>
       <c r="M18">
-        <v>0.00907</v>
+        <v>0.00906</v>
       </c>
       <c r="N18">
         <v>0.02807</v>
@@ -5497,25 +5497,25 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>0.00285</v>
+        <v>0.00278</v>
       </c>
       <c r="C19">
         <v>0.0011</v>
       </c>
       <c r="D19">
-        <v>0.00341</v>
+        <v>0.00329</v>
       </c>
       <c r="E19">
-        <v>0.00183</v>
+        <v>0.00181</v>
       </c>
       <c r="F19">
-        <v>0.00477</v>
+        <v>0.00431</v>
       </c>
       <c r="G19">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="H19">
-        <v>0.00287</v>
+        <v>0.00284</v>
       </c>
       <c r="I19">
         <v>0.00102</v>
@@ -5547,19 +5547,19 @@
         <v>94</v>
       </c>
       <c r="B20">
-        <v>0.00258</v>
+        <v>0.00251</v>
       </c>
       <c r="C20">
         <v>0.009939999999999999</v>
       </c>
       <c r="D20">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5597,28 +5597,28 @@
         <v>95</v>
       </c>
       <c r="B21">
-        <v>0.00257</v>
+        <v>0.0025</v>
       </c>
       <c r="C21">
         <v>0.008149999999999999</v>
       </c>
       <c r="D21">
-        <v>0.00081</v>
+        <v>0.00078</v>
       </c>
       <c r="E21">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00296</v>
+        <v>0.00295</v>
       </c>
       <c r="H21">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I21">
-        <v>0.0078</v>
+        <v>0.00781</v>
       </c>
       <c r="J21">
         <v>0.00402</v>
@@ -5647,13 +5647,13 @@
         <v>96</v>
       </c>
       <c r="B22">
-        <v>0.00221</v>
+        <v>0.00215</v>
       </c>
       <c r="C22">
         <v>0.00797</v>
       </c>
       <c r="D22">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5665,13 +5665,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.00106</v>
+        <v>0.00105</v>
       </c>
       <c r="I22">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J22">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K22">
         <v>0.01537</v>
@@ -5697,25 +5697,25 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C23">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D23">
-        <v>0.0019</v>
+        <v>0.00184</v>
       </c>
       <c r="E23">
         <v>0.00024</v>
       </c>
       <c r="F23">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00485</v>
+        <v>0.0048</v>
       </c>
       <c r="I23">
         <v>0.00029</v>
@@ -5747,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="B24">
-        <v>0.00124</v>
+        <v>0.00121</v>
       </c>
       <c r="C24">
         <v>0.00456</v>
@@ -5759,13 +5759,13 @@
         <v>0.0001</v>
       </c>
       <c r="F24">
-        <v>0.00023</v>
+        <v>0.00021</v>
       </c>
       <c r="G24">
         <v>6E-05</v>
       </c>
       <c r="H24">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I24">
         <v>0.00194</v>
@@ -5797,13 +5797,13 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>0.00121</v>
+        <v>0.00118</v>
       </c>
       <c r="C25">
         <v>0.00038</v>
       </c>
       <c r="D25">
-        <v>0.00148</v>
+        <v>0.00143</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.00422</v>
+        <v>0.00418</v>
       </c>
       <c r="I25">
         <v>0.00153</v>
@@ -5847,25 +5847,25 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="C26">
         <v>0.00013</v>
       </c>
       <c r="D26">
-        <v>0.00153</v>
+        <v>0.00148</v>
       </c>
       <c r="E26">
-        <v>0.00238</v>
+        <v>0.00235</v>
       </c>
       <c r="F26">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G26">
         <v>4E-05</v>
       </c>
       <c r="H26">
-        <v>0.00282</v>
+        <v>0.00279</v>
       </c>
       <c r="I26">
         <v>0.00031</v>
@@ -5897,25 +5897,25 @@
         <v>99</v>
       </c>
       <c r="B27">
-        <v>0.00116</v>
+        <v>0.00113</v>
       </c>
       <c r="C27">
         <v>0.00424</v>
       </c>
       <c r="D27">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="E27">
         <v>3E-05</v>
       </c>
       <c r="F27">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G27">
         <v>0.00028</v>
       </c>
       <c r="H27">
-        <v>0.00032</v>
+        <v>0.00031</v>
       </c>
       <c r="I27">
         <v>0.0045</v>
@@ -5930,7 +5930,7 @@
         <v>0.04176</v>
       </c>
       <c r="M27">
-        <v>0.03019</v>
+        <v>0.03018</v>
       </c>
       <c r="N27">
         <v>0.00375</v>
@@ -5947,19 +5947,19 @@
         <v>100</v>
       </c>
       <c r="B28">
-        <v>0.0009700000000000001</v>
+        <v>0.00094</v>
       </c>
       <c r="C28">
         <v>0.00341</v>
       </c>
       <c r="D28">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="E28">
         <v>0.00011</v>
       </c>
       <c r="F28">
-        <v>0.00043</v>
+        <v>0.00038</v>
       </c>
       <c r="G28">
         <v>0.00013</v>
@@ -5980,7 +5980,7 @@
         <v>0.0048</v>
       </c>
       <c r="M28">
-        <v>0.01289</v>
+        <v>0.01288</v>
       </c>
       <c r="N28">
         <v>0.00163</v>
@@ -5997,10 +5997,10 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>0.00082</v>
+        <v>0.00078</v>
       </c>
       <c r="C29">
-        <v>0.00338</v>
+        <v>0.00331</v>
       </c>
       <c r="D29">
         <v>1E-05</v>
@@ -6018,7 +6018,7 @@
         <v>3E-05</v>
       </c>
       <c r="I29">
-        <v>0.00359</v>
+        <v>0.00331</v>
       </c>
       <c r="J29">
         <v>0.00156</v>
@@ -6030,7 +6030,7 @@
         <v>0.00428</v>
       </c>
       <c r="M29">
-        <v>0.02712</v>
+        <v>0.02711</v>
       </c>
       <c r="N29">
         <v>0.01232</v>
@@ -6047,10 +6047,10 @@
         <v>101</v>
       </c>
       <c r="B30">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="C30">
-        <v>0.0032</v>
+        <v>0.00323</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.00058</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K30">
         <v>0.00026</v>
@@ -6080,13 +6080,13 @@
         <v>0.00157</v>
       </c>
       <c r="M30">
-        <v>0.06623</v>
+        <v>0.06658</v>
       </c>
       <c r="N30">
         <v>0.00359</v>
       </c>
       <c r="O30">
-        <v>0.00565</v>
+        <v>0.00575</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C31">
         <v>0.00235</v>
@@ -6109,7 +6109,7 @@
         <v>0.0001</v>
       </c>
       <c r="F31">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G31">
         <v>2E-05</v>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.02825</v>
+        <v>0.02824</v>
       </c>
       <c r="N31">
         <v>0.00098</v>
@@ -6147,19 +6147,19 @@
         <v>103</v>
       </c>
       <c r="B32">
-        <v>0.0005999999999999999</v>
+        <v>0.00059</v>
       </c>
       <c r="C32">
         <v>0.00233</v>
       </c>
       <c r="D32">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6197,19 +6197,19 @@
         <v>104</v>
       </c>
       <c r="B33">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="C33">
         <v>0.00059</v>
       </c>
       <c r="D33">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="E33">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F33">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G33">
         <v>0.00053</v>
@@ -6247,25 +6247,25 @@
         <v>105</v>
       </c>
       <c r="B34">
-        <v>0.00057</v>
+        <v>0.00055</v>
       </c>
       <c r="C34">
         <v>0.00011</v>
       </c>
       <c r="D34">
-        <v>0.00071</v>
+        <v>0.00068</v>
       </c>
       <c r="E34">
         <v>0.00061</v>
       </c>
       <c r="F34">
-        <v>0.00124</v>
+        <v>0.00112</v>
       </c>
       <c r="G34">
         <v>0.00022</v>
       </c>
       <c r="H34">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6297,19 +6297,19 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="C35">
         <v>0.00017</v>
       </c>
       <c r="D35">
-        <v>0.00066</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="E35">
-        <v>0.00182</v>
+        <v>0.0018</v>
       </c>
       <c r="F35">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G35">
         <v>0.00022</v>
@@ -6347,16 +6347,16 @@
         <v>107</v>
       </c>
       <c r="B36">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="C36">
         <v>0.00073</v>
       </c>
       <c r="D36">
-        <v>0.00043</v>
+        <v>0.00041</v>
       </c>
       <c r="E36">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -6397,16 +6397,16 @@
         <v>108</v>
       </c>
       <c r="B37">
-        <v>0.00049</v>
+        <v>0.00048</v>
       </c>
       <c r="C37">
         <v>0.00095</v>
       </c>
       <c r="D37">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c r="E37">
-        <v>0.00159</v>
+        <v>0.00157</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6453,13 +6453,13 @@
         <v>2E-05</v>
       </c>
       <c r="D38">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6503,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E39">
         <v>0.00025</v>
       </c>
       <c r="F39">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>115</v>
       </c>
       <c r="B44">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C44">
         <v>6E-05</v>
@@ -6756,7 +6756,7 @@
         <v>5E-05</v>
       </c>
       <c r="E44">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="F44">
         <v>5E-05</v>
@@ -6859,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0.00188</v>
       </c>
       <c r="M47">
-        <v>0.00465</v>
+        <v>0.00464</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -7047,7 +7047,7 @@
         <v>121</v>
       </c>
       <c r="B50">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C50">
         <v>0.00015</v>
@@ -7297,7 +7297,7 @@
         <v>126</v>
       </c>
       <c r="B55">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C55">
         <v>0.00011</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -7707,28 +7707,28 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>0.36979</v>
+        <v>0.36011</v>
       </c>
       <c r="C2">
-        <v>0.12459</v>
+        <v>0.1246</v>
       </c>
       <c r="D2">
-        <v>0.44736</v>
+        <v>0.43203</v>
       </c>
       <c r="E2">
-        <v>0.41803</v>
+        <v>0.4131</v>
       </c>
       <c r="F2">
-        <v>0.31324</v>
+        <v>0.28279</v>
       </c>
       <c r="G2">
-        <v>0.46696</v>
+        <v>0.46566</v>
       </c>
       <c r="H2">
-        <v>0.55959</v>
+        <v>0.55488</v>
       </c>
       <c r="I2">
-        <v>0.37857</v>
+        <v>0.37867</v>
       </c>
       <c r="J2">
         <v>0.0325</v>
@@ -7740,7 +7740,7 @@
         <v>0.00199</v>
       </c>
       <c r="M2">
-        <v>0.17488</v>
+        <v>0.17482</v>
       </c>
       <c r="N2">
         <v>0.03081</v>
@@ -7757,25 +7757,25 @@
         <v>133</v>
       </c>
       <c r="B3">
-        <v>0.11071</v>
+        <v>0.13429</v>
       </c>
       <c r="C3">
         <v>0.00185</v>
       </c>
       <c r="D3">
-        <v>0.14515</v>
+        <v>0.17473</v>
       </c>
       <c r="E3">
-        <v>0.10644</v>
+        <v>0.11616</v>
       </c>
       <c r="F3">
-        <v>0.3217</v>
+        <v>0.38873</v>
       </c>
       <c r="G3">
-        <v>0.06526999999999999</v>
+        <v>0.06719</v>
       </c>
       <c r="H3">
-        <v>0.06765</v>
+        <v>0.07598000000000001</v>
       </c>
       <c r="I3">
         <v>0.00264</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03384</v>
+        <v>0.03382</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -7807,28 +7807,28 @@
         <v>134</v>
       </c>
       <c r="B4">
-        <v>0.07559</v>
+        <v>0.07358000000000001</v>
       </c>
       <c r="C4">
         <v>0.00221</v>
       </c>
       <c r="D4">
-        <v>0.09881</v>
+        <v>0.09537</v>
       </c>
       <c r="E4">
-        <v>0.03081</v>
+        <v>0.03044</v>
       </c>
       <c r="F4">
-        <v>0.00057</v>
+        <v>0.00051</v>
       </c>
       <c r="G4">
-        <v>0.14003</v>
+        <v>0.13963</v>
       </c>
       <c r="H4">
-        <v>0.19313</v>
+        <v>0.19125</v>
       </c>
       <c r="I4">
-        <v>0.00696</v>
+        <v>0.00697</v>
       </c>
       <c r="J4">
         <v>0.00108</v>
@@ -7857,10 +7857,10 @@
         <v>135</v>
       </c>
       <c r="B5">
-        <v>0.07164</v>
+        <v>0.06973</v>
       </c>
       <c r="C5">
-        <v>0.29805</v>
+        <v>0.29806</v>
       </c>
       <c r="D5">
         <v>1E-05</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7878,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0609</v>
+        <v>0.06092</v>
       </c>
       <c r="J5">
-        <v>0.4348</v>
+        <v>0.43479</v>
       </c>
       <c r="K5">
         <v>0.23656</v>
@@ -7890,13 +7890,13 @@
         <v>0.40553</v>
       </c>
       <c r="M5">
-        <v>0.01969</v>
+        <v>0.01968</v>
       </c>
       <c r="N5">
         <v>0.01721</v>
       </c>
       <c r="O5">
-        <v>0.66374</v>
+        <v>0.66367</v>
       </c>
       <c r="P5">
         <v>0.01546</v>
@@ -7907,31 +7907,31 @@
         <v>136</v>
       </c>
       <c r="B6">
-        <v>0.05199</v>
+        <v>0.05061</v>
       </c>
       <c r="C6">
         <v>0.11294</v>
       </c>
       <c r="D6">
-        <v>0.03271</v>
+        <v>0.03157</v>
       </c>
       <c r="E6">
-        <v>0.00256</v>
+        <v>0.00253</v>
       </c>
       <c r="F6">
-        <v>0.09866</v>
+        <v>0.08907</v>
       </c>
       <c r="G6">
         <v>0.00128</v>
       </c>
       <c r="H6">
-        <v>0.01325</v>
+        <v>0.01312</v>
       </c>
       <c r="I6">
-        <v>0.01502</v>
+        <v>0.01503</v>
       </c>
       <c r="J6">
-        <v>0.15142</v>
+        <v>0.15141</v>
       </c>
       <c r="K6">
         <v>0.2129</v>
@@ -7940,13 +7940,13 @@
         <v>0.16948</v>
       </c>
       <c r="M6">
-        <v>0.01782</v>
+        <v>0.01781</v>
       </c>
       <c r="N6">
         <v>0.01794</v>
       </c>
       <c r="O6">
-        <v>0.05636</v>
+        <v>0.05635</v>
       </c>
       <c r="P6">
         <v>0.00839</v>
@@ -7957,28 +7957,28 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <v>0.03395</v>
+        <v>0.03304</v>
       </c>
       <c r="C7">
         <v>0.02912</v>
       </c>
       <c r="D7">
-        <v>0.03547</v>
+        <v>0.03424</v>
       </c>
       <c r="E7">
-        <v>0.03094</v>
+        <v>0.03057</v>
       </c>
       <c r="F7">
-        <v>0.00383</v>
+        <v>0.00346</v>
       </c>
       <c r="G7">
-        <v>0.15331</v>
+        <v>0.15288</v>
       </c>
       <c r="H7">
-        <v>0.00319</v>
+        <v>0.00316</v>
       </c>
       <c r="I7">
-        <v>0.09208</v>
+        <v>0.09211</v>
       </c>
       <c r="J7">
         <v>0.0035</v>
@@ -8007,16 +8007,16 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.03276</v>
+        <v>0.03189</v>
       </c>
       <c r="C8">
-        <v>0.12178</v>
+        <v>0.12179</v>
       </c>
       <c r="D8">
-        <v>0.0046</v>
+        <v>0.00444</v>
       </c>
       <c r="E8">
-        <v>0.00585</v>
+        <v>0.00578</v>
       </c>
       <c r="F8">
         <v>4E-05</v>
@@ -8025,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00983</v>
+        <v>0.00974</v>
       </c>
       <c r="I8">
-        <v>0.23977</v>
+        <v>0.23984</v>
       </c>
       <c r="J8">
         <v>0.05724</v>
@@ -8040,13 +8040,13 @@
         <v>0.07055</v>
       </c>
       <c r="M8">
-        <v>0.29405</v>
+        <v>0.29394</v>
       </c>
       <c r="N8">
         <v>0.27136</v>
       </c>
       <c r="O8">
-        <v>0.03663</v>
+        <v>0.03662</v>
       </c>
       <c r="P8">
         <v>0.06315999999999999</v>
@@ -8057,31 +8057,31 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.02942</v>
+        <v>0.02889</v>
       </c>
       <c r="C9">
-        <v>0.02403</v>
+        <v>0.02407</v>
       </c>
       <c r="D9">
-        <v>0.03112</v>
+        <v>0.03037</v>
       </c>
       <c r="E9">
-        <v>0.10962</v>
+        <v>0.10941</v>
       </c>
       <c r="F9">
-        <v>0.00579</v>
+        <v>0.00523</v>
       </c>
       <c r="G9">
-        <v>0.01018</v>
+        <v>0.01086</v>
       </c>
       <c r="H9">
-        <v>0.01831</v>
+        <v>0.01814</v>
       </c>
       <c r="I9">
         <v>0.01884</v>
       </c>
       <c r="J9">
-        <v>0.02232</v>
+        <v>0.02234</v>
       </c>
       <c r="K9">
         <v>0.02809</v>
@@ -8090,13 +8090,13 @@
         <v>0.01486</v>
       </c>
       <c r="M9">
-        <v>0.02774</v>
+        <v>0.02812</v>
       </c>
       <c r="N9">
         <v>0.09611</v>
       </c>
       <c r="O9">
-        <v>0.009560000000000001</v>
+        <v>0.00966</v>
       </c>
       <c r="P9">
         <v>0.07993</v>
@@ -8107,25 +8107,25 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>0.02548</v>
+        <v>0.0248</v>
       </c>
       <c r="C10">
         <v>0.00105</v>
       </c>
       <c r="D10">
-        <v>0.0332</v>
+        <v>0.03205</v>
       </c>
       <c r="E10">
-        <v>0.06772</v>
+        <v>0.06691999999999999</v>
       </c>
       <c r="F10">
-        <v>0.0046</v>
+        <v>0.00415</v>
       </c>
       <c r="G10">
-        <v>0.07829</v>
+        <v>0.07807</v>
       </c>
       <c r="H10">
-        <v>0.01382</v>
+        <v>0.01369</v>
       </c>
       <c r="I10">
         <v>0.00233</v>
@@ -8157,31 +8157,31 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>0.02457</v>
+        <v>0.02391</v>
       </c>
       <c r="C11">
         <v>0.07958999999999999</v>
       </c>
       <c r="D11">
-        <v>0.00716</v>
+        <v>0.00691</v>
       </c>
       <c r="E11">
-        <v>0.02164</v>
+        <v>0.02138</v>
       </c>
       <c r="F11">
-        <v>0.0005</v>
+        <v>0.00045</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00805</v>
+        <v>0.00797</v>
       </c>
       <c r="I11">
-        <v>0.03784</v>
+        <v>0.03785</v>
       </c>
       <c r="J11">
-        <v>0.11661</v>
+        <v>0.1166</v>
       </c>
       <c r="K11">
         <v>0.13698</v>
@@ -8207,25 +8207,25 @@
         <v>139</v>
       </c>
       <c r="B12">
-        <v>0.02394</v>
+        <v>0.02331</v>
       </c>
       <c r="C12">
         <v>0.01887</v>
       </c>
       <c r="D12">
-        <v>0.02555</v>
+        <v>0.02466</v>
       </c>
       <c r="E12">
-        <v>0.009990000000000001</v>
+        <v>0.00987</v>
       </c>
       <c r="F12">
-        <v>0.05021</v>
+        <v>0.04533</v>
       </c>
       <c r="G12">
-        <v>0.00731</v>
+        <v>0.00729</v>
       </c>
       <c r="H12">
-        <v>0.02394</v>
+        <v>0.0237</v>
       </c>
       <c r="I12">
         <v>0.00067</v>
@@ -8240,13 +8240,13 @@
         <v>0.02764</v>
       </c>
       <c r="M12">
-        <v>0.01188</v>
+        <v>0.01187</v>
       </c>
       <c r="N12">
         <v>0.0018</v>
       </c>
       <c r="O12">
-        <v>0.00263</v>
+        <v>0.00262</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -8257,25 +8257,25 @@
         <v>140</v>
       </c>
       <c r="B13">
-        <v>0.02365</v>
+        <v>0.02301</v>
       </c>
       <c r="C13">
         <v>0.00028</v>
       </c>
       <c r="D13">
-        <v>0.03104</v>
+        <v>0.02996</v>
       </c>
       <c r="E13">
-        <v>0.00681</v>
+        <v>0.00673</v>
       </c>
       <c r="F13">
-        <v>0.08189</v>
+        <v>0.07392</v>
       </c>
       <c r="G13">
-        <v>0.02304</v>
+        <v>0.02298</v>
       </c>
       <c r="H13">
-        <v>0.00834</v>
+        <v>0.00826</v>
       </c>
       <c r="I13">
         <v>0.00065</v>
@@ -8307,16 +8307,16 @@
         <v>141</v>
       </c>
       <c r="B14">
-        <v>0.01894</v>
+        <v>0.01844</v>
       </c>
       <c r="C14">
         <v>0.01465</v>
       </c>
       <c r="D14">
-        <v>0.0203</v>
+        <v>0.01959</v>
       </c>
       <c r="E14">
-        <v>0.09728000000000001</v>
+        <v>0.09612999999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0.00043</v>
       </c>
       <c r="H14">
-        <v>0.00381</v>
+        <v>0.00377</v>
       </c>
       <c r="I14">
         <v>0.00495</v>
@@ -8357,25 +8357,25 @@
         <v>142</v>
       </c>
       <c r="B15">
-        <v>0.01677</v>
+        <v>0.01633</v>
       </c>
       <c r="C15">
         <v>0.00092</v>
       </c>
       <c r="D15">
-        <v>0.02179</v>
+        <v>0.02103</v>
       </c>
       <c r="E15">
-        <v>0.02685</v>
+        <v>0.02654</v>
       </c>
       <c r="F15">
-        <v>0.02666</v>
+        <v>0.02407</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0262</v>
+        <v>0.02594</v>
       </c>
       <c r="I15">
         <v>0.00332</v>
@@ -8407,25 +8407,25 @@
         <v>143</v>
       </c>
       <c r="B16">
-        <v>0.01461</v>
+        <v>0.01422</v>
       </c>
       <c r="C16">
         <v>0.05878</v>
       </c>
       <c r="D16">
-        <v>0.00063</v>
+        <v>0.00061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00098</v>
+        <v>0.00088</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.00103</v>
+        <v>0.00102</v>
       </c>
       <c r="I16">
         <v>0.01679</v>
@@ -8440,13 +8440,13 @@
         <v>0.11065</v>
       </c>
       <c r="M16">
-        <v>0.0218</v>
+        <v>0.02179</v>
       </c>
       <c r="N16">
         <v>0.00541</v>
       </c>
       <c r="O16">
-        <v>0.08411</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="P16">
         <v>0.0055</v>
@@ -8457,25 +8457,25 @@
         <v>144</v>
       </c>
       <c r="B17">
-        <v>0.01132</v>
+        <v>0.01102</v>
       </c>
       <c r="C17">
         <v>0.00035</v>
       </c>
       <c r="D17">
-        <v>0.0148</v>
+        <v>0.01428</v>
       </c>
       <c r="E17">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="F17">
-        <v>0.04141</v>
+        <v>0.03739</v>
       </c>
       <c r="G17">
-        <v>0.005</v>
+        <v>0.00499</v>
       </c>
       <c r="H17">
-        <v>0.00658</v>
+        <v>0.00651</v>
       </c>
       <c r="I17">
         <v>0.00107</v>
@@ -8507,25 +8507,25 @@
         <v>145</v>
       </c>
       <c r="B18">
-        <v>0.00704</v>
+        <v>0.00685</v>
       </c>
       <c r="C18">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D18">
-        <v>0.00924</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="E18">
-        <v>0.00903</v>
+        <v>0.00893</v>
       </c>
       <c r="F18">
-        <v>0.00036</v>
+        <v>0.00032</v>
       </c>
       <c r="G18">
-        <v>0.01455</v>
+        <v>0.01451</v>
       </c>
       <c r="H18">
-        <v>0.01368</v>
+        <v>0.01355</v>
       </c>
       <c r="I18">
         <v>0.00033</v>
@@ -8557,22 +8557,22 @@
         <v>146</v>
       </c>
       <c r="B19">
-        <v>0.00458</v>
+        <v>0.00445</v>
       </c>
       <c r="C19">
         <v>0.00668</v>
       </c>
       <c r="D19">
-        <v>0.00391</v>
+        <v>0.00377</v>
       </c>
       <c r="E19">
-        <v>0.01218</v>
+        <v>0.01203</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00797</v>
+        <v>0.00795</v>
       </c>
       <c r="H19">
         <v>0.00036</v>
@@ -8607,19 +8607,19 @@
         <v>147</v>
       </c>
       <c r="B20">
-        <v>0.00371</v>
+        <v>0.00361</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00489</v>
+        <v>0.00472</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.01764</v>
+        <v>0.01593</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8657,25 +8657,25 @@
         <v>148</v>
       </c>
       <c r="B21">
-        <v>0.00329</v>
+        <v>0.00321</v>
       </c>
       <c r="C21">
         <v>0.00689</v>
       </c>
       <c r="D21">
-        <v>0.00215</v>
+        <v>0.00208</v>
       </c>
       <c r="E21">
-        <v>0.00256</v>
+        <v>0.00253</v>
       </c>
       <c r="F21">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G21">
-        <v>0.00682</v>
+        <v>0.0068</v>
       </c>
       <c r="H21">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="I21">
         <v>0.00357</v>
@@ -8690,7 +8690,7 @@
         <v>0.0157</v>
       </c>
       <c r="M21">
-        <v>0.00946</v>
+        <v>0.00945</v>
       </c>
       <c r="N21">
         <v>0.02819</v>
@@ -8707,25 +8707,25 @@
         <v>149</v>
       </c>
       <c r="B22">
-        <v>0.00323</v>
+        <v>0.00314</v>
       </c>
       <c r="C22">
         <v>0.00522</v>
       </c>
       <c r="D22">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="E22">
-        <v>0.00168</v>
+        <v>0.00166</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00153</v>
+        <v>0.00152</v>
       </c>
       <c r="H22">
-        <v>0.00569</v>
+        <v>0.00564</v>
       </c>
       <c r="I22">
         <v>0.00227</v>
@@ -8740,13 +8740,13 @@
         <v>0.0023</v>
       </c>
       <c r="M22">
-        <v>0.00602</v>
+        <v>0.00601</v>
       </c>
       <c r="N22">
         <v>0.00893</v>
       </c>
       <c r="O22">
-        <v>0.03255</v>
+        <v>0.03254</v>
       </c>
       <c r="P22">
         <v>0.0076</v>
@@ -8757,22 +8757,22 @@
         <v>150</v>
       </c>
       <c r="B23">
-        <v>0.00268</v>
+        <v>0.00257</v>
       </c>
       <c r="C23">
         <v>0.00044</v>
       </c>
       <c r="D23">
-        <v>0.00339</v>
+        <v>0.00322</v>
       </c>
       <c r="E23">
-        <v>0.0052</v>
+        <v>0.00488</v>
       </c>
       <c r="F23">
-        <v>0.0037</v>
+        <v>0.00334</v>
       </c>
       <c r="G23">
-        <v>0.00725</v>
+        <v>0.00723</v>
       </c>
       <c r="H23">
         <v>0.00018</v>
@@ -8807,19 +8807,19 @@
         <v>151</v>
       </c>
       <c r="B24">
-        <v>0.00259</v>
+        <v>0.00253</v>
       </c>
       <c r="C24">
         <v>0.01</v>
       </c>
       <c r="D24">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="I24">
-        <v>0.01928</v>
+        <v>0.01929</v>
       </c>
       <c r="J24">
         <v>0.01051</v>
@@ -8857,22 +8857,22 @@
         <v>152</v>
       </c>
       <c r="B25">
-        <v>0.00258</v>
+        <v>0.00252</v>
       </c>
       <c r="C25">
         <v>0.008189999999999999</v>
       </c>
       <c r="D25">
-        <v>0.00081</v>
+        <v>0.00078</v>
       </c>
       <c r="E25">
-        <v>0.0009300000000000001</v>
+        <v>0.00092</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00297</v>
+        <v>0.00296</v>
       </c>
       <c r="H25">
         <v>0.00029</v>
@@ -8907,28 +8907,28 @@
         <v>153</v>
       </c>
       <c r="B26">
-        <v>0.00244</v>
+        <v>0.00238</v>
       </c>
       <c r="C26">
         <v>0.007889999999999999</v>
       </c>
       <c r="D26">
-        <v>0.00072</v>
+        <v>0.00069</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.00031</v>
+        <v>0.00028</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.0018</v>
+        <v>0.00178</v>
       </c>
       <c r="I26">
-        <v>0.01566</v>
+        <v>0.01567</v>
       </c>
       <c r="J26">
         <v>0.00415</v>
@@ -8940,7 +8940,7 @@
         <v>0.01863</v>
       </c>
       <c r="M26">
-        <v>0.01805</v>
+        <v>0.01804</v>
       </c>
       <c r="N26">
         <v>0.01434</v>
@@ -8957,25 +8957,25 @@
         <v>154</v>
       </c>
       <c r="B27">
-        <v>0.00224</v>
+        <v>0.00218</v>
       </c>
       <c r="C27">
         <v>0.00654</v>
       </c>
       <c r="D27">
-        <v>0.00088</v>
+        <v>0.00085</v>
       </c>
       <c r="E27">
         <v>0.00039</v>
       </c>
       <c r="F27">
-        <v>0.00205</v>
+        <v>0.00185</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.00067</v>
+        <v>0.00066</v>
       </c>
       <c r="I27">
         <v>0.00074</v>
@@ -9007,13 +9007,13 @@
         <v>155</v>
       </c>
       <c r="B28">
-        <v>0.00222</v>
+        <v>0.00216</v>
       </c>
       <c r="C28">
         <v>0.00801</v>
       </c>
       <c r="D28">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.00107</v>
+        <v>0.00106</v>
       </c>
       <c r="I28">
         <v>0.00383</v>
@@ -9057,25 +9057,25 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>0.00147</v>
+        <v>0.00143</v>
       </c>
       <c r="C29">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D29">
-        <v>0.00191</v>
+        <v>0.00185</v>
       </c>
       <c r="E29">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="F29">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.00486</v>
+        <v>0.00481</v>
       </c>
       <c r="I29">
         <v>0.00029</v>
@@ -9107,25 +9107,25 @@
         <v>156</v>
       </c>
       <c r="B30">
-        <v>0.00137</v>
+        <v>0.00133</v>
       </c>
       <c r="C30">
         <v>0.00033</v>
       </c>
       <c r="D30">
-        <v>0.0017</v>
+        <v>0.00164</v>
       </c>
       <c r="E30">
-        <v>0.00773</v>
+        <v>0.00764</v>
       </c>
       <c r="F30">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="G30">
         <v>0.00022</v>
       </c>
       <c r="H30">
-        <v>0.00035</v>
+        <v>0.00034</v>
       </c>
       <c r="I30">
         <v>0.0004</v>
@@ -9157,19 +9157,19 @@
         <v>157</v>
       </c>
       <c r="B31">
-        <v>0.00136</v>
+        <v>0.00132</v>
       </c>
       <c r="C31">
         <v>0.00012</v>
       </c>
       <c r="D31">
-        <v>0.00175</v>
+        <v>0.00169</v>
       </c>
       <c r="E31">
         <v>0.00025</v>
       </c>
       <c r="F31">
-        <v>0.00568</v>
+        <v>0.00513</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -9207,13 +9207,13 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>0.00122</v>
+        <v>0.00119</v>
       </c>
       <c r="C32">
         <v>0.00038</v>
       </c>
       <c r="D32">
-        <v>0.00149</v>
+        <v>0.00143</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.00423</v>
+        <v>0.00419</v>
       </c>
       <c r="I32">
         <v>0.00155</v>
@@ -9257,25 +9257,25 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>0.0012</v>
+        <v>0.00117</v>
       </c>
       <c r="C33">
         <v>0.00013</v>
       </c>
       <c r="D33">
-        <v>0.00154</v>
+        <v>0.00148</v>
       </c>
       <c r="E33">
-        <v>0.00243</v>
+        <v>0.0024</v>
       </c>
       <c r="F33">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G33">
         <v>4E-05</v>
       </c>
       <c r="H33">
-        <v>0.00282</v>
+        <v>0.0028</v>
       </c>
       <c r="I33">
         <v>0.00031</v>
@@ -9307,13 +9307,13 @@
         <v>158</v>
       </c>
       <c r="B34">
-        <v>0.00116</v>
+        <v>0.00113</v>
       </c>
       <c r="C34">
         <v>0.004</v>
       </c>
       <c r="D34">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9325,10 +9325,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.00074</v>
+        <v>0.00073</v>
       </c>
       <c r="I34">
-        <v>0.01539</v>
+        <v>0.0154</v>
       </c>
       <c r="J34">
         <v>4E-05</v>
@@ -9357,46 +9357,46 @@
         <v>159</v>
       </c>
       <c r="B35">
-        <v>0.00116</v>
+        <v>0.00112</v>
       </c>
       <c r="C35">
-        <v>0.00264</v>
+        <v>0.00422</v>
       </c>
       <c r="D35">
-        <v>0.00069</v>
+        <v>0.00017</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.00192</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G35">
-        <v>4E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="H35">
-        <v>0.00042</v>
+        <v>0.00029</v>
       </c>
       <c r="I35">
-        <v>0.00026</v>
+        <v>0.00438</v>
       </c>
       <c r="J35">
-        <v>6.999999999999999E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="K35">
-        <v>0.0006400000000000001</v>
+        <v>0.00205</v>
       </c>
       <c r="L35">
-        <v>0.00335</v>
+        <v>0.04187</v>
       </c>
       <c r="M35">
-        <v>0.05798</v>
+        <v>0.03148</v>
       </c>
       <c r="N35">
-        <v>0.0177</v>
+        <v>0.00377</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.00388</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -9407,49 +9407,49 @@
         <v>160</v>
       </c>
       <c r="B36">
-        <v>0.00115</v>
+        <v>0.0011</v>
       </c>
       <c r="C36">
-        <v>0.00422</v>
+        <v>0.00135</v>
       </c>
       <c r="D36">
-        <v>0.00018</v>
+        <v>0.00102</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.00438</v>
       </c>
       <c r="F36">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.00028</v>
+        <v>0.00071</v>
       </c>
       <c r="H36">
-        <v>0.00029</v>
+        <v>0.00019</v>
       </c>
       <c r="I36">
-        <v>0.00437</v>
+        <v>0.00062</v>
       </c>
       <c r="J36">
-        <v>0.00058</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0.00205</v>
+        <v>0.00037</v>
       </c>
       <c r="L36">
-        <v>0.04187</v>
+        <v>0.0089</v>
       </c>
       <c r="M36">
-        <v>0.03149</v>
+        <v>0.00289</v>
       </c>
       <c r="N36">
-        <v>0.00377</v>
+        <v>0.00467</v>
       </c>
       <c r="O36">
-        <v>0.00388</v>
+        <v>0.00349</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>0.02909</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -9457,49 +9457,49 @@
         <v>161</v>
       </c>
       <c r="B37">
-        <v>0.00113</v>
+        <v>0.00095</v>
       </c>
       <c r="C37">
-        <v>0.00135</v>
+        <v>0.00343</v>
       </c>
       <c r="D37">
-        <v>0.00106</v>
+        <v>0.00019</v>
       </c>
       <c r="E37">
-        <v>0.00444</v>
+        <v>0.00011</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="G37">
-        <v>0.00072</v>
+        <v>0.00013</v>
       </c>
       <c r="H37">
-        <v>0.0002</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I37">
-        <v>0.00062</v>
+        <v>0.00155</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.00454</v>
       </c>
       <c r="K37">
-        <v>0.00037</v>
+        <v>0.00229</v>
       </c>
       <c r="L37">
-        <v>0.0089</v>
+        <v>0.00482</v>
       </c>
       <c r="M37">
-        <v>0.00289</v>
+        <v>0.01344</v>
       </c>
       <c r="N37">
-        <v>0.00467</v>
+        <v>0.00164</v>
       </c>
       <c r="O37">
-        <v>0.00349</v>
+        <v>0.00418</v>
       </c>
       <c r="P37">
-        <v>0.02909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -9507,46 +9507,46 @@
         <v>162</v>
       </c>
       <c r="B38">
-        <v>0.0009700000000000001</v>
+        <v>0.00088</v>
       </c>
       <c r="C38">
-        <v>0.00343</v>
+        <v>0.00264</v>
       </c>
       <c r="D38">
-        <v>0.0002</v>
+        <v>0.00034</v>
       </c>
       <c r="E38">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.00043</v>
+        <v>0.00066</v>
       </c>
       <c r="G38">
-        <v>0.00013</v>
+        <v>4E-05</v>
       </c>
       <c r="H38">
-        <v>9.000000000000001E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="I38">
-        <v>0.00155</v>
+        <v>0.00026</v>
       </c>
       <c r="J38">
-        <v>0.00454</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="K38">
-        <v>0.00229</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="L38">
-        <v>0.00482</v>
+        <v>0.00335</v>
       </c>
       <c r="M38">
-        <v>0.01344</v>
+        <v>0.05796</v>
       </c>
       <c r="N38">
-        <v>0.00164</v>
+        <v>0.0177</v>
       </c>
       <c r="O38">
-        <v>0.00418</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -9557,19 +9557,19 @@
         <v>163</v>
       </c>
       <c r="B39">
-        <v>0.00087</v>
+        <v>0.00085</v>
       </c>
       <c r="C39">
         <v>0.00023</v>
       </c>
       <c r="D39">
-        <v>0.00108</v>
+        <v>0.00104</v>
       </c>
       <c r="E39">
-        <v>0.00421</v>
+        <v>0.00416</v>
       </c>
       <c r="F39">
-        <v>5E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G39">
         <v>0.0005</v>
@@ -9607,10 +9607,10 @@
         <v>61</v>
       </c>
       <c r="B40">
-        <v>0.00083</v>
+        <v>0.00079</v>
       </c>
       <c r="C40">
-        <v>0.0034</v>
+        <v>0.00333</v>
       </c>
       <c r="D40">
         <v>1E-05</v>
@@ -9628,7 +9628,7 @@
         <v>3E-05</v>
       </c>
       <c r="I40">
-        <v>0.00362</v>
+        <v>0.00334</v>
       </c>
       <c r="J40">
         <v>0.00157</v>
@@ -9640,7 +9640,7 @@
         <v>0.00429</v>
       </c>
       <c r="M40">
-        <v>0.02829</v>
+        <v>0.02828</v>
       </c>
       <c r="N40">
         <v>0.01237</v>
@@ -9657,19 +9657,19 @@
         <v>164</v>
       </c>
       <c r="B41">
-        <v>0.00076</v>
+        <v>0.00074</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.00099</v>
+        <v>0.00096</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.00359</v>
+        <v>0.00324</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>165</v>
       </c>
       <c r="B42">
-        <v>0.00071</v>
+        <v>0.00069</v>
       </c>
       <c r="C42">
         <v>0.00266</v>
@@ -9725,7 +9725,7 @@
         <v>6E-05</v>
       </c>
       <c r="H42">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="I42">
         <v>0.00061</v>
@@ -9740,13 +9740,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="N42">
         <v>0.00279</v>
       </c>
       <c r="O42">
-        <v>0.00991</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -9757,19 +9757,19 @@
         <v>166</v>
       </c>
       <c r="B43">
-        <v>0.00065</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.00086</v>
+        <v>0.00083</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.0031</v>
+        <v>0.0028</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -9807,25 +9807,25 @@
         <v>167</v>
       </c>
       <c r="B44">
-        <v>0.0006400000000000001</v>
+        <v>0.00062</v>
       </c>
       <c r="C44">
         <v>0.00098</v>
       </c>
       <c r="D44">
-        <v>0.00053</v>
+        <v>0.00051</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.00091</v>
+        <v>0.00082</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.00079</v>
+        <v>0.00078</v>
       </c>
       <c r="I44">
         <v>0.00034</v>
@@ -9857,7 +9857,7 @@
         <v>168</v>
       </c>
       <c r="B45">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="C45">
         <v>0.00236</v>
@@ -9869,7 +9869,7 @@
         <v>0.0001</v>
       </c>
       <c r="F45">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G45">
         <v>2E-05</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.02946</v>
+        <v>0.02945</v>
       </c>
       <c r="N45">
         <v>0.00098</v>
@@ -9907,19 +9907,19 @@
         <v>169</v>
       </c>
       <c r="B46">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="C46">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D46">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="E46">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="F46">
-        <v>0.00141</v>
+        <v>0.00127</v>
       </c>
       <c r="G46">
         <v>0.00053</v>
@@ -9957,7 +9957,7 @@
         <v>170</v>
       </c>
       <c r="B47">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="C47">
         <v>0.00244</v>
@@ -9990,7 +9990,7 @@
         <v>0.00157</v>
       </c>
       <c r="M47">
-        <v>0.04806</v>
+        <v>0.04804</v>
       </c>
       <c r="N47">
         <v>0.00361</v>
@@ -10007,7 +10007,7 @@
         <v>171</v>
       </c>
       <c r="B48">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="C48">
         <v>0.00225</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>172</v>
       </c>
       <c r="B49">
-        <v>0.00052</v>
+        <v>0.0005</v>
       </c>
       <c r="C49">
         <v>0.00196</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>173</v>
       </c>
       <c r="B50">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="C50">
         <v>0.00181</v>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>174</v>
       </c>
       <c r="B51">
-        <v>0.00045</v>
+        <v>0.00044</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="E51">
-        <v>0.00305</v>
+        <v>0.00302</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -10207,7 +10207,7 @@
         <v>175</v>
       </c>
       <c r="B52">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
       <c r="C52">
         <v>0.00183</v>
@@ -10257,7 +10257,7 @@
         <v>176</v>
       </c>
       <c r="B53">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="C53">
         <v>0.00144</v>
@@ -10266,7 +10266,7 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="E53">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>177</v>
       </c>
       <c r="B54">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="C54">
         <v>0.00132</v>
@@ -10319,10 +10319,10 @@
         <v>6E-05</v>
       </c>
       <c r="F54">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="G54">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="H54">
         <v>0.00012</v>
@@ -10357,22 +10357,22 @@
         <v>178</v>
       </c>
       <c r="B55">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="C55">
         <v>0.0001</v>
       </c>
       <c r="D55">
-        <v>0.00047</v>
+        <v>0.00045</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G55">
-        <v>0.00214</v>
+        <v>0.00213</v>
       </c>
       <c r="H55">
         <v>4E-05</v>
@@ -10407,7 +10407,7 @@
         <v>179</v>
       </c>
       <c r="B56">
-        <v>0.00035</v>
+        <v>0.00034</v>
       </c>
       <c r="C56">
         <v>0.00147</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.0086</v>
+        <v>0.00859</v>
       </c>
       <c r="N56">
         <v>0.03892</v>
@@ -10457,22 +10457,22 @@
         <v>180</v>
       </c>
       <c r="B57">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c r="C57">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D57">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.00113</v>
+        <v>0.00102</v>
       </c>
       <c r="G57">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="H57">
         <v>0.0002</v>
@@ -10507,19 +10507,19 @@
         <v>181</v>
       </c>
       <c r="B58">
-        <v>0.00032</v>
+        <v>0.00031</v>
       </c>
       <c r="C58">
         <v>2E-05</v>
       </c>
       <c r="D58">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -10563,10 +10563,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="E59">
-        <v>0.00213</v>
+        <v>0.0021</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>183</v>
       </c>
       <c r="B60">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C60">
         <v>0.0013</v>
@@ -10657,16 +10657,16 @@
         <v>184</v>
       </c>
       <c r="B61">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="C61">
         <v>0.0002</v>
       </c>
       <c r="D61">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="E61">
-        <v>0.00141</v>
+        <v>0.00139</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -10707,7 +10707,7 @@
         <v>185</v>
       </c>
       <c r="B62">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="C62">
         <v>0.00058</v>
@@ -10719,13 +10719,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.00051</v>
+        <v>0.00046</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="I62">
         <v>0.00129</v>
@@ -10763,10 +10763,10 @@
         <v>0.00013</v>
       </c>
       <c r="D63">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E63">
-        <v>0.00073</v>
+        <v>0.00072</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0.00017</v>
       </c>
       <c r="H63">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="I63">
         <v>0.00022</v>
@@ -10807,7 +10807,7 @@
         <v>187</v>
       </c>
       <c r="B64">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C64">
         <v>0.00027</v>
@@ -10857,16 +10857,16 @@
         <v>188</v>
       </c>
       <c r="B65">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C65">
         <v>0.0002</v>
       </c>
       <c r="D65">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="E65">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>189</v>
       </c>
       <c r="B66">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C66">
         <v>0.00078</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.02102</v>
+        <v>0.02101</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>190</v>
       </c>
       <c r="B67">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>0.00042</v>
       </c>
       <c r="F67">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.00039</v>
+        <v>0.00038</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -11013,10 +11013,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="E68">
-        <v>0.00118</v>
+        <v>0.00116</v>
       </c>
       <c r="F68">
         <v>4E-05</v>
@@ -11163,7 +11163,7 @@
         <v>0.00034</v>
       </c>
       <c r="D71">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -11213,10 +11213,10 @@
         <v>0.0001</v>
       </c>
       <c r="D72">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="E72">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -11313,19 +11313,19 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E74">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.00026</v>
+        <v>6E-05</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.00085</v>
       </c>
       <c r="H74">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -11363,19 +11363,19 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="F75">
-        <v>6.999999999999999E-05</v>
+        <v>0.00023</v>
       </c>
       <c r="G75">
-        <v>0.00085</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -11513,7 +11513,7 @@
         <v>2E-05</v>
       </c>
       <c r="D78">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="E78">
         <v>0.0003</v>
@@ -11557,7 +11557,7 @@
         <v>202</v>
       </c>
       <c r="B79">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.00051</v>
+        <v>0.00046</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -11607,7 +11607,7 @@
         <v>203</v>
       </c>
       <c r="B80">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="C80">
         <v>0.00033</v>
@@ -11675,7 +11675,7 @@
         <v>3E-05</v>
       </c>
       <c r="H81">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="I81">
         <v>0.00096</v>
@@ -11907,7 +11907,7 @@
         <v>209</v>
       </c>
       <c r="B86">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.00026</v>
+        <v>0.00024</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -12160,22 +12160,22 @@
         <v>4E-05</v>
       </c>
       <c r="C91">
-        <v>6E-05</v>
+        <v>0.00017</v>
       </c>
       <c r="D91">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -12190,10 +12190,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.0007</v>
+        <v>0.00539</v>
       </c>
       <c r="N91">
-        <v>0.00139</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -12210,22 +12210,22 @@
         <v>4E-05</v>
       </c>
       <c r="C92">
-        <v>0.00017</v>
+        <v>6E-05</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -12240,10 +12240,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.00539</v>
+        <v>0.0007</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>0.00139</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -12307,7 +12307,7 @@
         <v>217</v>
       </c>
       <c r="B94">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C94">
         <v>0.00015</v>
@@ -12416,7 +12416,7 @@
         <v>4E-05</v>
       </c>
       <c r="E96">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12560,13 +12560,13 @@
         <v>3E-05</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D99">
-        <v>4E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="E99">
-        <v>0.0002</v>
+        <v>5E-05</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.00305</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -12610,13 +12610,13 @@
         <v>3E-05</v>
       </c>
       <c r="C100">
-        <v>0.0001</v>
+        <v>0.00012</v>
       </c>
       <c r="D100">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.00305</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>0.01336</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -12660,13 +12660,13 @@
         <v>3E-05</v>
       </c>
       <c r="C101">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0.01336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="H110">
         <v>4E-05</v>
@@ -13307,7 +13307,7 @@
         <v>237</v>
       </c>
       <c r="B114">
-        <v>2E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14017,31 +14017,31 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>0.7329599999999999</v>
+        <v>0.69557</v>
       </c>
       <c r="C2">
         <v>0.89086</v>
       </c>
       <c r="D2">
-        <v>0.65098</v>
+        <v>0.60184</v>
       </c>
       <c r="E2">
-        <v>0.8644500000000001</v>
+        <v>0.84337</v>
       </c>
       <c r="F2">
-        <v>0.41118</v>
+        <v>0.35598</v>
       </c>
       <c r="G2">
-        <v>0.92316</v>
+        <v>0.9184600000000001</v>
       </c>
       <c r="H2">
-        <v>0.77258</v>
+        <v>0.74522</v>
       </c>
       <c r="I2">
-        <v>0.99136</v>
+        <v>0.99135</v>
       </c>
       <c r="J2">
-        <v>0.84773</v>
+        <v>0.84774</v>
       </c>
       <c r="K2">
         <v>0.80955</v>
@@ -14067,25 +14067,25 @@
         <v>247</v>
       </c>
       <c r="B3">
-        <v>0.10398</v>
+        <v>0.14969</v>
       </c>
       <c r="C3">
         <v>0.00021</v>
       </c>
       <c r="D3">
-        <v>0.15785</v>
+        <v>0.22143</v>
       </c>
       <c r="E3">
-        <v>0.05214</v>
+        <v>0.07547</v>
       </c>
       <c r="F3">
-        <v>0.2923</v>
+        <v>0.38628</v>
       </c>
       <c r="G3">
-        <v>0.01041</v>
+        <v>0.01558</v>
       </c>
       <c r="H3">
-        <v>0.07189</v>
+        <v>0.10479</v>
       </c>
       <c r="I3">
         <v>0.00149</v>
@@ -14117,25 +14117,25 @@
         <v>248</v>
       </c>
       <c r="B4">
-        <v>0.05555</v>
+        <v>0.05271</v>
       </c>
       <c r="C4">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D4">
-        <v>0.08434999999999999</v>
+        <v>0.07797999999999999</v>
       </c>
       <c r="E4">
-        <v>0.03455</v>
+        <v>0.03361</v>
       </c>
       <c r="F4">
-        <v>0.14867</v>
+        <v>0.12922</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.05379</v>
+        <v>0.05187</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -14167,25 +14167,25 @@
         <v>249</v>
       </c>
       <c r="B5">
-        <v>0.04668</v>
+        <v>0.0443</v>
       </c>
       <c r="C5">
         <v>0.00039</v>
       </c>
       <c r="D5">
-        <v>0.07072000000000001</v>
+        <v>0.06537999999999999</v>
       </c>
       <c r="E5">
-        <v>0.0158</v>
+        <v>0.01537</v>
       </c>
       <c r="F5">
-        <v>0.11438</v>
+        <v>0.09941999999999999</v>
       </c>
       <c r="G5">
-        <v>0.05806</v>
+        <v>0.05764</v>
       </c>
       <c r="H5">
-        <v>0.03395</v>
+        <v>0.03274</v>
       </c>
       <c r="I5">
         <v>0.00152</v>
@@ -14217,25 +14217,25 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>0.03336</v>
+        <v>0.03165</v>
       </c>
       <c r="C6">
-        <v>0.09097</v>
+        <v>0.09098000000000001</v>
       </c>
       <c r="D6">
-        <v>0.00344</v>
+        <v>0.00318</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0007</v>
+        <v>0.00061</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01592</v>
+        <v>0.01535</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -14267,25 +14267,25 @@
         <v>251</v>
       </c>
       <c r="B7">
-        <v>0.01263</v>
+        <v>0.01198</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01918</v>
+        <v>0.01773</v>
       </c>
       <c r="E7">
-        <v>0.00349</v>
+        <v>0.00339</v>
       </c>
       <c r="F7">
-        <v>0.02666</v>
+        <v>0.02317</v>
       </c>
       <c r="G7">
-        <v>0.00518</v>
+        <v>0.00514</v>
       </c>
       <c r="H7">
-        <v>0.0287</v>
+        <v>0.02767</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -14317,13 +14317,13 @@
         <v>252</v>
       </c>
       <c r="B8">
-        <v>0.00483</v>
+        <v>0.00458</v>
       </c>
       <c r="C8">
-        <v>0.01344</v>
+        <v>0.01345</v>
       </c>
       <c r="D8">
-        <v>0.00035</v>
+        <v>0.00033</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0018</v>
+        <v>0.00174</v>
       </c>
       <c r="I8">
         <v>0.00154</v>
@@ -14367,25 +14367,25 @@
         <v>253</v>
       </c>
       <c r="B9">
-        <v>0.00322</v>
+        <v>0.00305</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00489</v>
+        <v>0.00452</v>
       </c>
       <c r="E9">
-        <v>0.02112</v>
+        <v>0.02055</v>
       </c>
       <c r="F9">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G9">
-        <v>0.00308</v>
+        <v>0.00306</v>
       </c>
       <c r="H9">
-        <v>0.00165</v>
+        <v>0.00159</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -14417,25 +14417,25 @@
         <v>254</v>
       </c>
       <c r="B10">
-        <v>0.00181</v>
+        <v>0.00172</v>
       </c>
       <c r="C10">
         <v>0.0002</v>
       </c>
       <c r="D10">
-        <v>0.00265</v>
+        <v>0.00245</v>
       </c>
       <c r="E10">
-        <v>0.00092</v>
+        <v>0.0009</v>
       </c>
       <c r="F10">
-        <v>0.00071</v>
+        <v>0.00062</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01097</v>
+        <v>0.01058</v>
       </c>
       <c r="I10">
         <v>0.00063</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.00349</v>
+        <v>0.00348</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -14467,25 +14467,25 @@
         <v>255</v>
       </c>
       <c r="B11">
-        <v>0.00124</v>
+        <v>0.00117</v>
       </c>
       <c r="C11">
         <v>0.00251</v>
       </c>
       <c r="D11">
-        <v>0.00057</v>
+        <v>0.00053</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00111</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00036</v>
+        <v>0.00035</v>
       </c>
       <c r="I11">
         <v>0.00118</v>
@@ -14517,25 +14517,25 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>0.00106</v>
+        <v>0.001</v>
       </c>
       <c r="C12">
         <v>0.00022</v>
       </c>
       <c r="D12">
-        <v>0.00149</v>
+        <v>0.00138</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00193</v>
+        <v>0.00168</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.00316</v>
+        <v>0.00305</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -14567,16 +14567,16 @@
         <v>257</v>
       </c>
       <c r="B13">
-        <v>0.00062</v>
+        <v>0.00059</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.00094</v>
+        <v>0.00087</v>
       </c>
       <c r="E13">
-        <v>0.00201</v>
+        <v>0.00196</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.00286</v>
+        <v>0.00276</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -14617,16 +14617,16 @@
         <v>258</v>
       </c>
       <c r="B14">
-        <v>0.00062</v>
+        <v>0.00059</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.00094</v>
+        <v>0.00087</v>
       </c>
       <c r="E14">
-        <v>0.00493</v>
+        <v>0.0048</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -14667,13 +14667,13 @@
         <v>259</v>
       </c>
       <c r="B15">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="C15">
         <v>0.00034</v>
       </c>
       <c r="D15">
-        <v>0.00033</v>
+        <v>0.00031</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0017</v>
+        <v>0.00164</v>
       </c>
       <c r="I15">
         <v>0.00072</v>
@@ -14717,19 +14717,19 @@
         <v>260</v>
       </c>
       <c r="B16">
-        <v>0.00032</v>
+        <v>0.0003</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.00049</v>
+        <v>0.00045</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00107</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -14767,25 +14767,25 @@
         <v>261</v>
       </c>
       <c r="B17">
-        <v>0.00026</v>
+        <v>0.00024</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.00039</v>
+        <v>0.00036</v>
       </c>
       <c r="E17">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="F17">
-        <v>0.00036</v>
+        <v>0.00031</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.00056</v>
+        <v>0.00054</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -14817,19 +14817,19 @@
         <v>262</v>
       </c>
       <c r="B18">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00028</v>
+        <v>0.00026</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00061</v>
+        <v>0.00053</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -14917,7 +14917,7 @@
         <v>264</v>
       </c>
       <c r="B20">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="C20">
         <v>0.0002</v>
@@ -14967,7 +14967,7 @@
         <v>265</v>
       </c>
       <c r="B21">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="C21">
         <v>0.00019</v>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.00016</v>
+        <v>0.00014</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G27">
         <v>0</v>
